--- a/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Bakery_20250614.xlsx
+++ b/WorkBot/main/backend/ordering/OrderFiles/UNFI/UNFI_Bakery_20250614.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1258,6 +1258,60 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>183096-7</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Clio - Greek Yogurt Bar Strawberry</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>183090-0</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Clio - Greek Yogurt Bar Vanilla</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
